--- a/data/trans_bre/P38B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Edad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>8.849195556393708</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13.4083345793254</v>
+        <v>13.40833457932539</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.254273862961294</v>
@@ -627,7 +627,7 @@
         <v>0.1588160196383874</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2970445430332846</v>
+        <v>0.2970445430332844</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.212327220865248</v>
+        <v>6.395923762099967</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.819378883349858</v>
+        <v>2.502698325445159</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.717441571743191</v>
+        <v>2.392327318412352</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.121523528081413</v>
+        <v>0.1262143776104968</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03000277824104695</v>
+        <v>0.04402813546621832</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05809704589553409</v>
+        <v>0.04956435790680562</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.80174826531305</v>
+        <v>19.89602110049073</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.09677584952446</v>
+        <v>16.59292467975308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.73734844153231</v>
+        <v>24.11642783804432</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4296984247218278</v>
+        <v>0.4481610825703576</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2958679825751507</v>
+        <v>0.3239913863815395</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6337073824339731</v>
+        <v>0.6344879929648548</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.142453801942391</v>
+        <v>3.990330451267208</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.473357188037847</v>
+        <v>7.525534250274006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.016524054218831</v>
+        <v>3.914404918955788</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05248196349520076</v>
+        <v>0.05117247121664008</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1036692199965388</v>
+        <v>0.1055518705973303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05955892104626862</v>
+        <v>0.05487625241343954</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.2024244022893</v>
+        <v>13.20791879750318</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.18645404999104</v>
+        <v>17.26311423004178</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.39898900812379</v>
+        <v>18.12638724682538</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1801838061011806</v>
+        <v>0.1801203021613441</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2591408041119772</v>
+        <v>0.260126061490815</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2898786711634566</v>
+        <v>0.2996068912313642</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.553992973469718</v>
+        <v>1.472812094414867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1316009248025468</v>
+        <v>-0.2431009094293218</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.980676635484985</v>
+        <v>4.522699870142935</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.01763720923650557</v>
+        <v>0.01633994127908954</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.002312675172496244</v>
+        <v>-0.003121069143280389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06312190986214249</v>
+        <v>0.0579814937500097</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.726147262845251</v>
+        <v>8.52647405457833</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.867230872427767</v>
+        <v>8.093876009881784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.82766334529176</v>
+        <v>13.30760539129209</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1049002821588232</v>
+        <v>0.1024529138513263</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09872446470353474</v>
+        <v>0.1004674477760885</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1955991186360324</v>
+        <v>0.1840841484993949</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>2.78608934883211</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.371491387051051</v>
+        <v>3.371491387051062</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.002703839903601735</v>
@@ -873,7 +873,7 @@
         <v>0.03168934315371599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03843461591419835</v>
+        <v>0.03843461591419848</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.36503764954174</v>
+        <v>-2.932862703990483</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6623515311091718</v>
+        <v>-0.483466950009348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5176701227141992</v>
+        <v>0.4328177706237699</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03682327561888134</v>
+        <v>-0.03227711965382054</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.007191301406026348</v>
+        <v>-0.005114405807035204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00555605814212202</v>
+        <v>0.004899079740337555</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.012588881274213</v>
+        <v>3.834429058571805</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.280318763391662</v>
+        <v>6.467260744390664</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.38840111649205</v>
+        <v>6.577603029426728</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.04488091783392998</v>
+        <v>0.04321021491544918</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0731047559686545</v>
+        <v>0.07601897430367553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07401342298532704</v>
+        <v>0.07677827330413411</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>1.49547179523285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.409658911486746</v>
+        <v>3.409658911486779</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.02286315754170256</v>
@@ -955,7 +955,7 @@
         <v>0.01621452896033816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03714534792837455</v>
+        <v>0.03714534792837492</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.210194450353695</v>
+        <v>-1.057885137032731</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.960173793713658</v>
+        <v>-1.998157849302738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.139138097796951</v>
+        <v>0.9737647900368929</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.0127031719606471</v>
+        <v>-0.01116716862075291</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.02063017280029637</v>
+        <v>-0.02111643566190317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01235884321897666</v>
+        <v>0.01052666937210985</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.605755098844027</v>
+        <v>5.44392107253054</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.970926430627447</v>
+        <v>5.166810167918094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.208507277255279</v>
+        <v>6.009484083686721</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.06096401176982658</v>
+        <v>0.05975570053101936</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05494067548086405</v>
+        <v>0.05747770311154279</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06889108343746211</v>
+        <v>0.06727141314240549</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.2530918752099542</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.973841956623024</v>
+        <v>1.973841956623013</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01322804938683931</v>
@@ -1037,7 +1037,7 @@
         <v>0.002593456093604271</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02069116792149781</v>
+        <v>0.02069116792149769</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.228906531088083</v>
+        <v>-4.362442668701994</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.855318018437245</v>
+        <v>-1.858205219458844</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09967877381047754</v>
+        <v>-0.03390202448989658</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04331387049484518</v>
+        <v>-0.04454700498394619</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.01881554020714881</v>
+        <v>-0.01874330477322625</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00101442969754866</v>
+        <v>-0.0003224957097792881</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.386725982030019</v>
+        <v>2.042030911662813</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.374074036489689</v>
+        <v>2.687050288910303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.109384533092427</v>
+        <v>4.18091303363054</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.0255832464773936</v>
+        <v>0.02138356387441444</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02498020447605707</v>
+        <v>0.02830573449168985</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04391343961715675</v>
+        <v>0.0446355004575874</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>0.09281355372910971</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.459688427856888</v>
+        <v>-2.45968842785691</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.04027229423391094</v>
@@ -1119,7 +1119,7 @@
         <v>0.0009464745654978051</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.02491416175964823</v>
+        <v>-0.02491416175964845</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5185904423271522</v>
+        <v>0.3432842017629488</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.532020779047206</v>
+        <v>-2.191958592867341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.32123997110712</v>
+        <v>-4.300913385707933</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.005390285198561989</v>
+        <v>0.003503268412238864</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.02585614056738061</v>
+        <v>-0.02235437599422787</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.04345995438190516</v>
+        <v>-0.04349884469551169</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.70781732136655</v>
+        <v>8.705328757761203</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.274207046715131</v>
+        <v>2.237562842444905</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.6449125128269595</v>
+        <v>-0.5784348044362672</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.09725101271241306</v>
+        <v>0.09651177777176694</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02364086607611676</v>
+        <v>0.02317216679790837</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.006621052640348866</v>
+        <v>-0.006161403105753034</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>5.528879244371332</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6.74969857906329</v>
+        <v>6.749698579063268</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.06880489795594479</v>
@@ -1201,7 +1201,7 @@
         <v>0.06752553712363897</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08442583959439919</v>
+        <v>0.08442583959439891</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.822235163658252</v>
+        <v>3.958319423139148</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.682490563491718</v>
+        <v>3.813436025778911</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.707858724778492</v>
+        <v>4.663410294850764</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04593505209612632</v>
+        <v>0.04793818287260231</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04448436487536517</v>
+        <v>0.04576039963489213</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05794402862994943</v>
+        <v>0.05682959931742888</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.248481695829005</v>
+        <v>7.350157703737533</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.333518766950855</v>
+        <v>7.164668384737667</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.942575318884739</v>
+        <v>9.066295070450204</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.09022404484884089</v>
+        <v>0.09103301008648959</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09072346460237621</v>
+        <v>0.08890000477091599</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1133569629689775</v>
+        <v>0.1147898699180058</v>
       </c>
     </row>
     <row r="28">
